--- a/templates/micro1_series.xlsx
+++ b/templates/micro1_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\studies\simple_use_case\user_interface\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E444F19-583C-465E-A082-69BE8B8ACABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12BB0FA-1D14-45B1-A078-7947C61AD7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="907" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -91,21 +91,21 @@
     <t>storage|outflow</t>
   </si>
   <si>
-    <t>Net storage charging independent from the electrical production.
+    <t>Time\Id</t>
+  </si>
+  <si>
+    <t>load|pd</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>gen|pmax</t>
+  </si>
+  <si>
+    <t>Net storage discharging independent from the electrical production.
 If MW: in MW of stored energy.
 If %: 0.5 means 0.5*consumption_rating*consumption_efficiency.</t>
-  </si>
-  <si>
-    <t>Time\Id</t>
-  </si>
-  <si>
-    <t>load|pd</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>gen|pmax</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <f>COUNT('load|pd'!$1:$1)</f>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <f>COUNT('gen|pmax'!$1:$1)</f>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -642,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -723,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -770,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -817,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -853,6 +853,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
@@ -862,15 +871,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1115,6 +1115,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B32A8A-C6B5-43F9-BF2B-68CB4961BC8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395DFB6-D32F-4291-89D4-DE2B57F8FCEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1127,14 +1135,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B32A8A-C6B5-43F9-BF2B-68CB4961BC8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/templates/micro1_series.xlsx
+++ b/templates/micro1_series.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12BB0FA-1D14-45B1-A078-7947C61AD7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E700CA-421B-4DA3-8097-07F1B0B6DA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="907" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="15915" windowHeight="8400" tabRatio="907" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
     <sheet name="load|pd" sheetId="2" r:id="rId2"/>
     <sheet name="gen|pmax" sheetId="1" r:id="rId3"/>
-    <sheet name="storage|inflow" sheetId="16" r:id="rId4"/>
-    <sheet name="storage|outflow" sheetId="5" r:id="rId5"/>
+    <sheet name="gen_res|pmax" sheetId="17" r:id="rId4"/>
+    <sheet name="storage|inflow" sheetId="16" r:id="rId5"/>
+    <sheet name="storage|outflow" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Content</t>
   </si>
@@ -106,6 +107,9 @@
     <t>Net storage discharging independent from the electrical production.
 If MW: in MW of stored energy.
 If %: 0.5 means 0.5*consumption_rating*consumption_efficiency.</t>
+  </si>
+  <si>
+    <t>gen_res|pmax</t>
   </si>
 </sst>
 </file>
@@ -514,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6958972-DDD9-49CE-8358-3ED599BD05A8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,48 +614,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
-        <f>COUNT('storage|inflow'!$1:$1)</f>
+        <f>COUNT('gen_res|pmax'!$1:$1)</f>
         <v>1</v>
       </c>
       <c r="C10" s="5">
-        <f>IF(B10,COUNT('storage|inflow'!B:B)-1,0)</f>
+        <f>IF(B10,COUNT('gen_res|pmax'!B:B)-1,0)</f>
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
-        <f>COUNT('storage|outflow'!$1:$1)</f>
+        <f>COUNT('storage|inflow'!$1:$1)</f>
         <v>1</v>
       </c>
       <c r="C11" s="5">
-        <f>IF(B11,COUNT('storage|outflow'!B:B)-1,0)</f>
+        <f>IF(B11,COUNT('storage|inflow'!B:B)-1,0)</f>
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <f>COUNT('storage|outflow'!$1:$1)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <f>IF(B12,COUNT('storage|outflow'!B:B)-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11" xr:uid="{A0BDFD14-6D9F-4996-9258-0F9712F59873}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12" xr:uid="{A0BDFD14-6D9F-4996-9258-0F9712F59873}">
       <formula1>"MW,%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -759,6 +782,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF463B2-D7F9-4671-8C74-CBF6A8B15D98}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231B3DF0-E3B3-4191-B689-2D49DF9A08F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -805,7 +875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0E26B5-A4C1-4414-BF01-B67D804BCB2D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -853,15 +923,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
@@ -873,7 +934,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100360305CF8A5F8A4B86568FB88F41EB51" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7820bdd98b12bbce6701f392baa49827">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xmlns:ns3="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a7208ee71179b2cd86960a83168177e" ns2:_="" ns3:_="">
     <xsd:import namespace="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
@@ -1114,15 +1175,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B32A8A-C6B5-43F9-BF2B-68CB4961BC8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2395DFB6-D32F-4291-89D4-DE2B57F8FCEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1139,7 +1201,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF26052-8898-4F86-BC24-26759317F7C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1156,4 +1218,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B32A8A-C6B5-43F9-BF2B-68CB4961BC8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>